--- a/results_cnn_subnetwork_evaluation/PLV_subnetwork_separate_node_index/cnn_validation_SubRCM_plv_by_basic_fm_linear_rcm.xlsx
+++ b/results_cnn_subnetwork_evaluation/PLV_subnetwork_separate_node_index/cnn_validation_SubRCM_plv_by_basic_fm_linear_rcm.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\modeling_vce_residual\results_cnn_subnetwork_evaluation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\modeling_vce_residual\results_cnn_subnetwork_evaluation\PLV_subnetwork_separate_node_index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E41C03-EF8A-402E-BFDA-5B220FEE7D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E929F450-AA72-4AC0-8E20-AD5BF136F0BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
